--- a/Data/EC/NIT-9002629080.xlsx
+++ b/Data/EC/NIT-9002629080.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72C3B4C-1F63-40BF-83A3-8704CAFFF510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0172E10F-C844-4019-839A-6784114A03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C26BD4D-8AD6-463F-A9C2-DA9EFD6F73B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08F5D005-DA7D-461F-AAE5-B80CA8F45E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="210">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,499 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73209201</t>
+  </si>
+  <si>
+    <t>CHRISTIAN EMIRO ORTIZ BOTERO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1065570495</t>
+  </si>
+  <si>
+    <t>JAILER ENRIQUE ORTIZ VACA</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>8834607</t>
+  </si>
+  <si>
+    <t>AMSTRONG MANUEL CANOLES LENES</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>73205255</t>
+  </si>
+  <si>
+    <t>MILTON BANQUEZ PEREZ</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>78545006</t>
+  </si>
+  <si>
+    <t>GABRIEL DOMINGO CHARRASQUIEL DIAZ</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>73152609</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS LORDUY LOPEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>73573963</t>
+  </si>
+  <si>
+    <t>EFRAIN HERNANDEZ CARMONA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>73352462</t>
+  </si>
+  <si>
+    <t>YEISON JAVIER MORENO BARRIOS</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>73199951</t>
+  </si>
+  <si>
+    <t>JAVIER AUGUSTO ACEVEDO IRIARTE</t>
+  </si>
+  <si>
+    <t>73227609</t>
+  </si>
+  <si>
+    <t>JAVIER DE JESUS BALLESTAS SERRANO</t>
+  </si>
+  <si>
+    <t>1047372078</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSE CONTRERAS ZABALA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>8834412</t>
+  </si>
+  <si>
+    <t>WILMAN GELES BOLAÑO</t>
+  </si>
+  <si>
+    <t>1047416594</t>
+  </si>
+  <si>
+    <t>ARNOVIS AHUMEDO PADILLA</t>
+  </si>
+  <si>
+    <t>9287447</t>
+  </si>
+  <si>
+    <t>RAFAEL ARCADIO PUELLO CARDONA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1143358530</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER TEHERAN ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1128052425</t>
+  </si>
+  <si>
+    <t>JONATAN ENRIQUE MENDOZA BENITEZ</t>
+  </si>
+  <si>
+    <t>1047383834</t>
+  </si>
+  <si>
+    <t>JHON RAFAEL SILVA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143335156</t>
+  </si>
+  <si>
+    <t>DARWIN SEGOVIA RUIZ</t>
+  </si>
+  <si>
+    <t>1047454247</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO ANZOATEGUI GUERRERO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>9098893</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO FORERO SANTAMARIA</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>1047451100</t>
+  </si>
+  <si>
+    <t>LAURA PATRICIA ACOSTA GUERRERO</t>
+  </si>
+  <si>
+    <t>73351683</t>
+  </si>
+  <si>
+    <t>IVAN GONZALEZ CASTRO</t>
+  </si>
+  <si>
+    <t>1047440500</t>
+  </si>
+  <si>
+    <t>EMMANUEL GARCES BARRAGAN</t>
+  </si>
+  <si>
+    <t>73574674</t>
+  </si>
+  <si>
+    <t>ROBERTO CARRASQUILLA MEDRANO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1007255035</t>
+  </si>
+  <si>
+    <t>YELIS YULIETH MARTINEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>1047412876</t>
+  </si>
+  <si>
+    <t>CRISTIAN JESUS GUZMAN CARMONA</t>
+  </si>
+  <si>
+    <t>1047396623</t>
+  </si>
+  <si>
+    <t>ALLAN GLEN BANN DAVI TABORDA SALCEDO</t>
+  </si>
+  <si>
+    <t>1007724925</t>
+  </si>
+  <si>
+    <t>WILLIAM JOSE PEREZ OLIVERA</t>
+  </si>
+  <si>
+    <t>73571448</t>
+  </si>
+  <si>
+    <t>GONZALO JESUS GONZALEZRUBIO RUBIO</t>
+  </si>
+  <si>
+    <t>1050963893</t>
+  </si>
+  <si>
+    <t>BAIRON JOSE RAMOS FLOREZ</t>
+  </si>
+  <si>
+    <t>73198761</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ORDOSGOITIA MONTERO</t>
+  </si>
+  <si>
+    <t>45528376</t>
+  </si>
+  <si>
+    <t>JULIA ALEJANDRA CHAVEZ TORRES</t>
+  </si>
+  <si>
+    <t>1002192129</t>
+  </si>
+  <si>
+    <t>DILSON DE JESUS SUAREZ OROZCO</t>
+  </si>
+  <si>
+    <t>1047485339</t>
+  </si>
+  <si>
+    <t>BORIS EDUARDO MATOS DIAZ</t>
+  </si>
+  <si>
+    <t>1075298492</t>
+  </si>
+  <si>
+    <t>JUAN FELIPE POLANIA SUAZA</t>
+  </si>
+  <si>
+    <t>1143400817</t>
+  </si>
+  <si>
+    <t>CAMILO DAVID PUERTA GOMEZ</t>
+  </si>
+  <si>
+    <t>1143391565</t>
+  </si>
+  <si>
+    <t>DUVAN JAVIER BALLESTAS ORTIZ</t>
+  </si>
+  <si>
     <t>1050949812</t>
   </si>
   <si>
     <t>FABIO ANDRES MARTINEZ PADILLA</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>9287447</t>
-  </si>
-  <si>
-    <t>RAFAEL ARCADIO PUELLO CARDONA</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1047451100</t>
-  </si>
-  <si>
-    <t>LAURA PATRICIA ACOSTA GUERRERO</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
+    <t>1047450911</t>
+  </si>
+  <si>
+    <t>JOHN STEVEN ANCHICO CHACON</t>
+  </si>
+  <si>
+    <t>1050959247</t>
+  </si>
+  <si>
+    <t>MANUEL DE JESUS BATISTA DIAZ</t>
   </si>
   <si>
     <t>20142087</t>
@@ -122,49 +566,16 @@
     <t>RAFAEL GUERRERO BANQUET</t>
   </si>
   <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
     <t>1079991448</t>
   </si>
   <si>
     <t>RAFAEL AUGUSTO SAENZ NAVARRO</t>
   </si>
   <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
+    <t>1235040954</t>
+  </si>
+  <si>
+    <t>JOSE DAVID MOSCOTE SANTANA</t>
   </si>
   <si>
     <t>20206714</t>
@@ -173,100 +584,16 @@
     <t>ELMER ALEXIS CACERES VILLABONA</t>
   </si>
   <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1143358530</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER TEHERAN ZUÑIGA</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
+    <t>1047446005</t>
+  </si>
+  <si>
+    <t>DIANA ISABEL MONTES TORRES</t>
+  </si>
+  <si>
+    <t>1042442964</t>
+  </si>
+  <si>
+    <t>YANITH ANDREA CASTRO TORRES</t>
   </si>
   <si>
     <t>20332582</t>
@@ -275,79 +602,13 @@
     <t>JONATHAN CASTILLA JULIO</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1065570495</t>
-  </si>
-  <si>
-    <t>JAILER ENRIQUE ORTIZ VACA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1047454247</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO ANZOATEGUI GUERRERO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1047372078</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSE CONTRERAS ZABALA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
+    <t>1007802319</t>
+  </si>
+  <si>
+    <t>SANTIAGO JOSE PEREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>1002390550</t>
@@ -356,13 +617,22 @@
     <t>ANDRES FELIPE ZABALETA POSO</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1143391565</t>
-  </si>
-  <si>
-    <t>DUVAN JAVIER BALLESTAS ORTIZ</t>
+    <t>1143157088</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO SALINAS BUELVAS</t>
+  </si>
+  <si>
+    <t>1005604698</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO CUELLO MENDOZA</t>
+  </si>
+  <si>
+    <t>1051442615</t>
+  </si>
+  <si>
+    <t>JUAN DAVID RODRIGUEZ HERNANDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -776,7 +1046,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03840E89-1D48-732D-361D-02C68981DBC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573591FE-C40C-5FC4-BB05-BEAF69F4E386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,8 +1397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A2E385-AED9-4532-A805-4C3A9B1B7B79}">
-  <dimension ref="B2:J176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BACD9C4-61D2-46EC-BB28-65734582D951}">
+  <dimension ref="B2:J269"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1139,7 +1409,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1152,7 +1422,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1197,7 +1467,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1229,12 +1499,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5379092</v>
+        <v>10917456</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1245,17 +1515,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="F13" s="5">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1282,13 +1552,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1305,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25575</v>
+        <v>2547</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1319,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25575</v>
+        <v>25467</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1351,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>135460</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>4752450</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1365,19 +1635,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>3600</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1050000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1388,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>2547</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1411,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>39304</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1842393</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1434,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>33920</v>
+        <v>73696</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1842393</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1457,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>73696</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1842393</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1480,19 +1750,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>76400</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1503,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>76400</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1526,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>76400</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1549,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>76400</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1572,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>72600</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1595,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>72600</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1618,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>111283</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>2782082</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1641,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>111283</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>2782082</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1664,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>14947</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1401300</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1687,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1710,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>26000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1733,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>57200</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1430000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1756,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>57200</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1430000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1779,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>57200</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>1430000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1802,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>57200</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1430000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1825,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
-        <v>14136</v>
+        <v>2006</v>
       </c>
       <c r="G39" s="18">
-        <v>963851</v>
+        <v>1504360</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1848,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>12035</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1504360</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1871,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>8843</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>2210776</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1894,16 +2164,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1917,16 +2187,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1940,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1963,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F45" s="18">
-        <v>1047</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1986,16 +2256,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2009,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2032,16 +2302,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2055,13 +2325,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2078,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2101,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2124,13 +2394,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2147,13 +2417,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2170,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2193,13 +2463,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2216,13 +2486,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2239,13 +2509,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2262,13 +2532,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2285,13 +2555,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2308,13 +2578,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2331,13 +2601,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2354,13 +2624,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2377,13 +2647,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2400,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2423,13 +2693,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2446,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2469,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F67" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>2000000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2492,13 +2762,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2515,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2538,13 +2808,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2561,13 +2831,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2584,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2607,13 +2877,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2630,13 +2900,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2653,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2676,13 +2946,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2699,13 +2969,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2722,13 +2992,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2745,13 +3015,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2768,13 +3038,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2791,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2814,13 +3084,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2837,13 +3107,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2860,13 +3130,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2883,13 +3153,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2906,13 +3176,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2929,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2952,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2975,13 +3245,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2998,13 +3268,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3021,13 +3291,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3044,13 +3314,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3067,13 +3337,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3090,13 +3360,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3113,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3136,16 +3406,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3159,16 +3429,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3182,16 +3452,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3205,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3228,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F100" s="18">
-        <v>50000</v>
+        <v>29509</v>
       </c>
       <c r="G100" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3251,16 +3521,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3274,19 +3544,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F102" s="18">
-        <v>100000</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3297,16 +3567,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3320,16 +3590,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3343,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3366,19 +3636,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F106" s="18">
-        <v>100000</v>
+        <v>29509</v>
       </c>
       <c r="G106" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3389,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F107" s="18">
-        <v>100000</v>
+        <v>29509</v>
       </c>
       <c r="G107" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3412,16 +3682,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3435,16 +3705,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>25575</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3458,13 +3728,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F110" s="18">
         <v>100000</v>
@@ -3481,19 +3751,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3504,19 +3774,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3527,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F113" s="18">
         <v>100000</v>
@@ -3550,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>100000</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3573,19 +3843,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>50000</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3596,19 +3866,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>76400</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3619,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>76400</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3642,19 +3912,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>15280</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3665,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>2547</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3688,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>25467</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3711,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>5333</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>2000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3734,19 +4004,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3757,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>33920</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3780,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>2420</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3803,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3826,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>26075</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1504360</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3849,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3872,19 +4142,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3895,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3918,19 +4188,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3941,19 +4211,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3964,19 +4234,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3987,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4010,19 +4280,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="F134" s="18">
-        <v>48000</v>
+        <v>72600</v>
       </c>
       <c r="G134" s="18">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4033,19 +4303,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4056,19 +4326,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4079,19 +4349,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4102,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4125,19 +4395,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F139" s="18">
-        <v>135460</v>
+        <v>72600</v>
       </c>
       <c r="G139" s="18">
-        <v>4752450</v>
+        <v>1815000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4148,19 +4418,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4171,19 +4441,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4194,19 +4464,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4217,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4240,19 +4510,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4263,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4286,19 +4556,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4309,19 +4579,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4332,19 +4602,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4355,19 +4625,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4378,19 +4648,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>1815000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4401,19 +4671,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>166630</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>4165740</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4424,19 +4694,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>166630</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>4165740</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4447,19 +4717,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>42000</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>950000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4470,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>60000</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>1500000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4493,19 +4763,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>15280</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4516,19 +4786,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>2547</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4539,19 +4809,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>72600</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4562,19 +4832,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>14045</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4585,19 +4855,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>25467</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4608,19 +4878,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>2547</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4631,19 +4901,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F161" s="18">
-        <v>31249</v>
+        <v>68000</v>
       </c>
       <c r="G161" s="18">
-        <v>781242</v>
+        <v>1700000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4654,19 +4924,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>76400</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4677,19 +4947,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>76400</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>1910000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4700,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F164" s="18">
-        <v>5333</v>
+        <v>7640</v>
       </c>
       <c r="G164" s="18">
-        <v>2000000</v>
+        <v>1910000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4723,19 +4993,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F165" s="18">
-        <v>57200</v>
+        <v>84160</v>
       </c>
       <c r="G165" s="18">
-        <v>1430000</v>
+        <v>2104000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4746,19 +5016,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F166" s="18">
-        <v>57200</v>
+        <v>26075</v>
       </c>
       <c r="G166" s="18">
-        <v>1430000</v>
+        <v>1504360</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4769,19 +5039,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F167" s="18">
-        <v>57200</v>
+        <v>52000</v>
       </c>
       <c r="G167" s="18">
-        <v>1430000</v>
+        <v>1000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4792,19 +5062,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F168" s="18">
-        <v>57200</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4815,75 +5085,2214 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="F169" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="22" t="s">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F170" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F171" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G171" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F172" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G172" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G173" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F174" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G174" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F175" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G175" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G176" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F177" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G177" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F178" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G178" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F179" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G179" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G180" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F181" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G181" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G182" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G183" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G184" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F185" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G185" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G186" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F187" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G187" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F188" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G188" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B189" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F189" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G189" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="20"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F190" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G190" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B191" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F191" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G191" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="20"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B192" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F192" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G192" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="20"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F193" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G193" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="20"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B194" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F194" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G194" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="20"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B195" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F195" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G195" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="20"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B196" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G196" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="20"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F197" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G197" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="20"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B198" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F198" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G198" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="20"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B199" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F199" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G199" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="20"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B200" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G200" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F201" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G201" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F202" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G202" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F203" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G203" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F204" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G204" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B205" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F205" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G205" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F206" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G206" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F207" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G207" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F208" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G208" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F209" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G209" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F210" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G210" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F211" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G211" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F212" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G212" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F213" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G213" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F214" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G214" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F215" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G215" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F216" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G216" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G217" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F218" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G218" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F219" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G219" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F220" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G220" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F221" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G221" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F222" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G222" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G223" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F224" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G224" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F225" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G225" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F226" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G226" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="20"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F227" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G227" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="20"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E228" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="F228" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G228" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="20"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B229" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E229" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E170" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F170" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G170" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-      <c r="J170" s="26"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="H175" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C176" s="32"/>
-      <c r="H176" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="F229" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G229" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="20"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F230" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G230" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="20"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F231" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G231" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H231" s="19"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="20"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B232" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F232" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G232" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="20"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B233" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F233" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G233" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F234" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G234" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F235" s="18">
+        <v>25575</v>
+      </c>
+      <c r="G235" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G236" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F237" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G237" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="20"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G238" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B239" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G239" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="20"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G240" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F241" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G241" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G242" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F243" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G243" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F244" s="18">
+        <v>14136</v>
+      </c>
+      <c r="G244" s="18">
+        <v>963851</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" s="18">
+        <v>1047</v>
+      </c>
+      <c r="G245" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="18">
+        <v>76400</v>
+      </c>
+      <c r="G246" s="18">
+        <v>1910000</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F247" s="18">
+        <v>36300</v>
+      </c>
+      <c r="G247" s="18">
+        <v>1910000</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F248" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G248" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F249" s="18">
+        <v>2400</v>
+      </c>
+      <c r="G249" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F250" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G250" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G251" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F252" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G252" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G253" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F254" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G254" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F255" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G255" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="20"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F256" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G256" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H256" s="19"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="20"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F257" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G257" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H257" s="19"/>
+      <c r="I257" s="19"/>
+      <c r="J257" s="20"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F258" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G258" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="20"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F259" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G259" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="20"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F260" s="18">
+        <v>72600</v>
+      </c>
+      <c r="G260" s="18">
+        <v>1815000</v>
+      </c>
+      <c r="H260" s="19"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F261" s="18">
+        <v>139200</v>
+      </c>
+      <c r="G261" s="18">
+        <v>3480000</v>
+      </c>
+      <c r="H261" s="19"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="20"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F262" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G262" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H262" s="19"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="20"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F263" s="24">
+        <v>6400</v>
+      </c>
+      <c r="G263" s="24">
+        <v>1600000</v>
+      </c>
+      <c r="H263" s="25"/>
+      <c r="I263" s="25"/>
+      <c r="J263" s="26"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C268" s="32"/>
+      <c r="H268" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C269" s="32"/>
+      <c r="H269" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="H176:J176"/>
-    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="H268:J268"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002629080.xlsx
+++ b/Data/EC/NIT-9002629080.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0172E10F-C844-4019-839A-6784114A03C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3E1859-7E33-4ED2-A3A8-493BD972F77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08F5D005-DA7D-461F-AAE5-B80CA8F45E28}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{528840D6-0725-4926-BD63-59174483FB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="120">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,217 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73209201</t>
-  </si>
-  <si>
-    <t>CHRISTIAN EMIRO ORTIZ BOTERO</t>
-  </si>
-  <si>
-    <t>2503</t>
+    <t>9287447</t>
+  </si>
+  <si>
+    <t>RAFAEL ARCADIO PUELLO CARDONA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1050949812</t>
+  </si>
+  <si>
+    <t>FABIO ANDRES MARTINEZ PADILLA</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1047451100</t>
+  </si>
+  <si>
+    <t>LAURA PATRICIA ACOSTA GUERRERO</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>20142087</t>
+  </si>
+  <si>
+    <t>RAFAEL GUERRERO BANQUET</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1079991448</t>
+  </si>
+  <si>
+    <t>RAFAEL AUGUSTO SAENZ NAVARRO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>20206714</t>
+  </si>
+  <si>
+    <t>ELMER ALEXIS CACERES VILLABONA</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1143358530</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER TEHERAN ZUÑIGA</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>20332582</t>
+  </si>
+  <si>
+    <t>JONATHAN CASTILLA JULIO</t>
+  </si>
+  <si>
+    <t>2112</t>
   </si>
   <si>
     <t>1065570495</t>
@@ -83,88 +287,49 @@
     <t>2201</t>
   </si>
   <si>
-    <t>8834607</t>
-  </si>
-  <si>
-    <t>AMSTRONG MANUEL CANOLES LENES</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>73205255</t>
-  </si>
-  <si>
-    <t>MILTON BANQUEZ PEREZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>78545006</t>
-  </si>
-  <si>
-    <t>GABRIEL DOMINGO CHARRASQUIEL DIAZ</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>73152609</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS LORDUY LOPEZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>73573963</t>
-  </si>
-  <si>
-    <t>EFRAIN HERNANDEZ CARMONA</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>73352462</t>
-  </si>
-  <si>
-    <t>YEISON JAVIER MORENO BARRIOS</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>73199951</t>
-  </si>
-  <si>
-    <t>JAVIER AUGUSTO ACEVEDO IRIARTE</t>
-  </si>
-  <si>
-    <t>73227609</t>
-  </si>
-  <si>
-    <t>JAVIER DE JESUS BALLESTAS SERRANO</t>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1047454247</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO ANZOATEGUI GUERRERO</t>
+  </si>
+  <si>
+    <t>2305</t>
   </si>
   <si>
     <t>1047372078</t>
@@ -173,466 +338,31 @@
     <t>GABRIEL JOSE CONTRERAS ZABALA</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>2407</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>8834412</t>
-  </si>
-  <si>
-    <t>WILMAN GELES BOLAÑO</t>
-  </si>
-  <si>
-    <t>1047416594</t>
-  </si>
-  <si>
-    <t>ARNOVIS AHUMEDO PADILLA</t>
-  </si>
-  <si>
-    <t>9287447</t>
-  </si>
-  <si>
-    <t>RAFAEL ARCADIO PUELLO CARDONA</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1143358530</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER TEHERAN ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1128052425</t>
-  </si>
-  <si>
-    <t>JONATAN ENRIQUE MENDOZA BENITEZ</t>
-  </si>
-  <si>
-    <t>1047383834</t>
-  </si>
-  <si>
-    <t>JHON RAFAEL SILVA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143335156</t>
-  </si>
-  <si>
-    <t>DARWIN SEGOVIA RUIZ</t>
-  </si>
-  <si>
-    <t>1047454247</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO ANZOATEGUI GUERRERO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>9098893</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO FORERO SANTAMARIA</t>
+    <t>1143391565</t>
+  </si>
+  <si>
+    <t>DUVAN JAVIER BALLESTAS ORTIZ</t>
   </si>
   <si>
     <t>2408</t>
   </si>
   <si>
-    <t>1047451100</t>
-  </si>
-  <si>
-    <t>LAURA PATRICIA ACOSTA GUERRERO</t>
-  </si>
-  <si>
-    <t>73351683</t>
-  </si>
-  <si>
-    <t>IVAN GONZALEZ CASTRO</t>
-  </si>
-  <si>
-    <t>1047440500</t>
-  </si>
-  <si>
-    <t>EMMANUEL GARCES BARRAGAN</t>
-  </si>
-  <si>
-    <t>73574674</t>
-  </si>
-  <si>
-    <t>ROBERTO CARRASQUILLA MEDRANO</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1007255035</t>
-  </si>
-  <si>
-    <t>YELIS YULIETH MARTINEZ BUELVAS</t>
-  </si>
-  <si>
-    <t>1047412876</t>
-  </si>
-  <si>
-    <t>CRISTIAN JESUS GUZMAN CARMONA</t>
-  </si>
-  <si>
-    <t>1047396623</t>
-  </si>
-  <si>
-    <t>ALLAN GLEN BANN DAVI TABORDA SALCEDO</t>
-  </si>
-  <si>
-    <t>1007724925</t>
-  </si>
-  <si>
-    <t>WILLIAM JOSE PEREZ OLIVERA</t>
-  </si>
-  <si>
-    <t>73571448</t>
-  </si>
-  <si>
-    <t>GONZALO JESUS GONZALEZRUBIO RUBIO</t>
-  </si>
-  <si>
-    <t>1050963893</t>
-  </si>
-  <si>
-    <t>BAIRON JOSE RAMOS FLOREZ</t>
-  </si>
-  <si>
-    <t>73198761</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS ORDOSGOITIA MONTERO</t>
-  </si>
-  <si>
-    <t>45528376</t>
-  </si>
-  <si>
-    <t>JULIA ALEJANDRA CHAVEZ TORRES</t>
-  </si>
-  <si>
-    <t>1002192129</t>
-  </si>
-  <si>
-    <t>DILSON DE JESUS SUAREZ OROZCO</t>
-  </si>
-  <si>
-    <t>1047485339</t>
-  </si>
-  <si>
-    <t>BORIS EDUARDO MATOS DIAZ</t>
-  </si>
-  <si>
-    <t>1075298492</t>
-  </si>
-  <si>
-    <t>JUAN FELIPE POLANIA SUAZA</t>
-  </si>
-  <si>
-    <t>1143400817</t>
-  </si>
-  <si>
-    <t>CAMILO DAVID PUERTA GOMEZ</t>
-  </si>
-  <si>
-    <t>1143391565</t>
-  </si>
-  <si>
-    <t>DUVAN JAVIER BALLESTAS ORTIZ</t>
-  </si>
-  <si>
-    <t>1050949812</t>
-  </si>
-  <si>
-    <t>FABIO ANDRES MARTINEZ PADILLA</t>
-  </si>
-  <si>
-    <t>1047450911</t>
-  </si>
-  <si>
-    <t>JOHN STEVEN ANCHICO CHACON</t>
-  </si>
-  <si>
-    <t>1050959247</t>
-  </si>
-  <si>
-    <t>MANUEL DE JESUS BATISTA DIAZ</t>
-  </si>
-  <si>
-    <t>20142087</t>
-  </si>
-  <si>
-    <t>RAFAEL GUERRERO BANQUET</t>
-  </si>
-  <si>
-    <t>1079991448</t>
-  </si>
-  <si>
-    <t>RAFAEL AUGUSTO SAENZ NAVARRO</t>
-  </si>
-  <si>
-    <t>1235040954</t>
-  </si>
-  <si>
-    <t>JOSE DAVID MOSCOTE SANTANA</t>
-  </si>
-  <si>
-    <t>20206714</t>
-  </si>
-  <si>
-    <t>ELMER ALEXIS CACERES VILLABONA</t>
-  </si>
-  <si>
-    <t>1047446005</t>
-  </si>
-  <si>
-    <t>DIANA ISABEL MONTES TORRES</t>
-  </si>
-  <si>
-    <t>1042442964</t>
-  </si>
-  <si>
-    <t>YANITH ANDREA CASTRO TORRES</t>
-  </si>
-  <si>
-    <t>20332582</t>
-  </si>
-  <si>
-    <t>JONATHAN CASTILLA JULIO</t>
-  </si>
-  <si>
-    <t>1007802319</t>
-  </si>
-  <si>
-    <t>SANTIAGO JOSE PEREZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
     <t>1002390550</t>
   </si>
   <si>
     <t>ANDRES FELIPE ZABALETA POSO</t>
-  </si>
-  <si>
-    <t>1143157088</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO SALINAS BUELVAS</t>
-  </si>
-  <si>
-    <t>1005604698</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO CUELLO MENDOZA</t>
-  </si>
-  <si>
-    <t>1051442615</t>
-  </si>
-  <si>
-    <t>JUAN DAVID RODRIGUEZ HERNANDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -731,7 +461,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -744,9 +476,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -946,23 +676,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,10 +720,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,7 +776,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573591FE-C40C-5FC4-BB05-BEAF69F4E386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC32B67C-83EC-B033-8E01-C1F25C9B71C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,8 +1127,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BACD9C4-61D2-46EC-BB28-65734582D951}">
-  <dimension ref="B2:J269"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D4EB00-64BB-4E5D-AE12-C17412622F4D}">
+  <dimension ref="B2:J176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1409,7 +1139,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1422,7 +1152,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1467,7 +1197,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1499,12 +1229,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10917456</v>
+        <v>5379092</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1515,17 +1245,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1552,13 +1282,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1575,10 +1305,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>2547</v>
+        <v>25575</v>
       </c>
       <c r="G16" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1589,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25467</v>
+        <v>25575</v>
       </c>
       <c r="G17" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1612,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>135460</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>4752450</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1635,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>3600</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>1050000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1658,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>2547</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1681,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>39304</v>
+        <v>33920</v>
       </c>
       <c r="G21" s="18">
-        <v>1842393</v>
+        <v>2112400</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1704,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>73696</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>1842393</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1727,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>73696</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>1842393</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1750,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>76400</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1773,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>76400</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1796,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>76400</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1819,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>76400</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1842,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>72600</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1865,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>72600</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1888,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>111283</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>2782082</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1911,19 +1641,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>111283</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>2782082</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1934,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>14947</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>1401300</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1957,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1980,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>26000</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2003,19 +1733,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
-        <v>57200</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2026,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>57200</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2049,19 +1779,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>57200</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2072,19 +1802,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>57200</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2095,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>2006</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>1504360</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2118,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>12035</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>1504360</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2141,19 +1871,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>8843</v>
+        <v>14136</v>
       </c>
       <c r="G41" s="18">
-        <v>2210776</v>
+        <v>963851</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2164,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -2187,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2210,16 +1940,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2233,16 +1963,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2256,19 +1986,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>1047</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2279,16 +2009,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2302,16 +2032,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2325,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2348,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2371,13 +2101,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2394,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2417,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2440,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2463,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2486,13 +2216,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2509,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2532,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2555,13 +2285,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2578,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2601,13 +2331,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2624,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2647,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2670,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2693,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2716,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2739,19 +2469,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>2000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2762,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2785,13 +2515,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2808,13 +2538,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2831,13 +2561,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2854,13 +2584,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2877,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2900,13 +2630,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2923,13 +2653,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2946,13 +2676,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2969,13 +2699,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2992,13 +2722,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -3015,13 +2745,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -3038,13 +2768,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -3061,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -3084,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -3107,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -3130,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -3153,13 +2883,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -3176,13 +2906,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -3199,13 +2929,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3222,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3245,13 +2975,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3268,13 +2998,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3291,13 +3021,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3314,13 +3044,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3337,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3360,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3383,16 +3113,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3406,16 +3136,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F96" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3429,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3452,16 +3182,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3475,19 +3205,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>50000</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3498,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F100" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3521,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F101" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3544,19 +3274,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>100000</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3567,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F103" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3590,16 +3320,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F104" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3613,19 +3343,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>100000</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3636,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3659,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F107" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3682,19 +3412,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>100000</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>2500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3705,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F109" s="18">
-        <v>25575</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3728,19 +3458,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3751,13 +3481,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F111" s="18">
         <v>100000</v>
@@ -3774,19 +3504,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F112" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3797,19 +3527,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F113" s="18">
-        <v>100000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3820,13 +3550,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F114" s="18">
         <v>100000</v>
@@ -3843,19 +3573,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F115" s="18">
-        <v>50000</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>2500000</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3866,19 +3596,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F116" s="18">
-        <v>76400</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3889,19 +3619,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F117" s="18">
-        <v>76400</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3912,19 +3642,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F118" s="18">
-        <v>15280</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3935,19 +3665,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F119" s="18">
-        <v>2547</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3958,19 +3688,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F120" s="18">
-        <v>25467</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3981,19 +3711,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F121" s="18">
-        <v>5333</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>2000000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -4004,19 +3734,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="F122" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -4027,19 +3757,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F123" s="18">
-        <v>33920</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4050,19 +3780,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F124" s="18">
-        <v>2420</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4073,19 +3803,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F125" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4096,19 +3826,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F126" s="18">
-        <v>26075</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>1504360</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -4119,19 +3849,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F127" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4142,19 +3872,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F128" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4165,19 +3895,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F129" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4188,19 +3918,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F130" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4211,19 +3941,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F131" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4234,19 +3964,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F132" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4257,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="F133" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4280,19 +4010,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="F134" s="18">
-        <v>72600</v>
+        <v>48000</v>
       </c>
       <c r="G134" s="18">
-        <v>1600000</v>
+        <v>1200000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4303,19 +4033,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="F135" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4326,19 +4056,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F136" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4349,19 +4079,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="F137" s="18">
-        <v>72600</v>
+        <v>135460</v>
       </c>
       <c r="G137" s="18">
-        <v>1600000</v>
+        <v>5075640</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4372,19 +4102,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="F138" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>1600000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4395,19 +4125,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F139" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4418,19 +4148,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F140" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4441,19 +4171,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F141" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4464,19 +4194,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F142" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4487,19 +4217,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F143" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4510,19 +4240,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F144" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4533,19 +4263,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="F145" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4556,19 +4286,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="F146" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4579,19 +4309,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F147" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4602,19 +4332,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="F148" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4625,19 +4355,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F149" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4648,19 +4378,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F150" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>1815000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4671,19 +4401,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F151" s="18">
-        <v>166630</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>4165740</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4694,19 +4424,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F152" s="18">
-        <v>166630</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>4165740</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4717,19 +4447,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F153" s="18">
-        <v>42000</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>950000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4740,19 +4470,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F154" s="18">
-        <v>60000</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4763,19 +4493,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F155" s="18">
-        <v>15280</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4786,19 +4516,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F156" s="18">
-        <v>2547</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4809,19 +4539,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F157" s="18">
-        <v>72600</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4832,19 +4562,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="F158" s="18">
-        <v>14045</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4855,19 +4585,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F159" s="18">
-        <v>25467</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4878,19 +4608,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F160" s="18">
-        <v>2547</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4901,19 +4631,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F161" s="18">
-        <v>68000</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>1700000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4924,19 +4654,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F162" s="18">
-        <v>76400</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4947,19 +4677,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F163" s="18">
-        <v>76400</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>1910000</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4970,19 +4700,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F164" s="18">
-        <v>7640</v>
+        <v>5333</v>
       </c>
       <c r="G164" s="18">
-        <v>1910000</v>
+        <v>2000000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4993,19 +4723,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F165" s="18">
-        <v>84160</v>
+        <v>57200</v>
       </c>
       <c r="G165" s="18">
-        <v>2104000</v>
+        <v>1430000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -5016,19 +4746,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F166" s="18">
-        <v>26075</v>
+        <v>57200</v>
       </c>
       <c r="G166" s="18">
-        <v>1504360</v>
+        <v>1430000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -5039,19 +4769,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F167" s="18">
-        <v>52000</v>
+        <v>57200</v>
       </c>
       <c r="G167" s="18">
-        <v>1000000</v>
+        <v>1430000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -5062,19 +4792,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>57200</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>1430000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5085,2214 +4815,75 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="20"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F170" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F171" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G171" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F172" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G172" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F173" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G173" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F174" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G174" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="B170" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F170" s="24">
+        <v>72600</v>
+      </c>
+      <c r="G170" s="24">
+        <v>1815000</v>
+      </c>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="26"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F175" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G175" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="B175" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" s="32"/>
+      <c r="H175" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F176" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G176" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F177" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G177" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F178" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G178" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F179" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G179" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G180" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F181" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G181" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F182" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G182" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F183" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G183" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F184" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G184" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F185" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G185" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F186" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G186" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F187" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G187" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F188" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G188" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F189" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G189" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F190" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G190" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F191" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G191" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F192" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G192" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F193" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G193" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F194" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G194" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F195" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G195" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G196" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F197" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G197" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F198" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G198" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F199" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G199" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F200" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G200" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F201" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G201" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F202" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G202" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F203" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G203" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F204" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G204" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F205" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G205" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F206" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G206" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F207" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G207" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F208" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G208" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F209" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G209" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F210" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G210" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F211" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G211" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F212" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G212" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F213" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G213" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F214" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G214" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F215" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G215" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F216" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G216" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F217" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G217" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F218" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G218" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F219" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G219" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F220" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G220" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F221" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G221" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F222" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G222" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F223" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G223" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F224" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G224" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F225" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G225" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F226" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G226" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F227" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G227" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B228" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F228" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G228" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F229" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G229" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F230" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G230" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F231" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G231" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B232" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F232" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G232" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F233" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G233" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D234" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F234" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G234" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B235" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F235" s="18">
-        <v>25575</v>
-      </c>
-      <c r="G235" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B236" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E236" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F236" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G236" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B237" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D237" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F237" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G237" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G238" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F239" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G239" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G240" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F241" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F242" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G242" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F243" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G243" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B244" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F244" s="18">
-        <v>14136</v>
-      </c>
-      <c r="G244" s="18">
-        <v>963851</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B245" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F245" s="18">
-        <v>1047</v>
-      </c>
-      <c r="G245" s="18">
-        <v>785000</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B246" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" s="18">
-        <v>76400</v>
-      </c>
-      <c r="G246" s="18">
-        <v>1910000</v>
-      </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B247" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D247" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F247" s="18">
-        <v>36300</v>
-      </c>
-      <c r="G247" s="18">
-        <v>1910000</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F248" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G248" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F249" s="18">
-        <v>2400</v>
-      </c>
-      <c r="G249" s="18">
-        <v>1800000</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B250" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F250" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G250" s="18">
-        <v>1800000</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B251" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F251" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G251" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F252" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G252" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B253" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D253" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G253" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B254" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F254" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G254" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F255" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G255" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B256" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D256" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F256" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G256" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F257" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G257" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F258" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G258" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B259" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F259" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G259" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F260" s="18">
-        <v>72600</v>
-      </c>
-      <c r="G260" s="18">
-        <v>1815000</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F261" s="18">
-        <v>139200</v>
-      </c>
-      <c r="G261" s="18">
-        <v>3480000</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B262" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F262" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G262" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B263" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F263" s="24">
-        <v>6400</v>
-      </c>
-      <c r="G263" s="24">
-        <v>1600000</v>
-      </c>
-      <c r="H263" s="25"/>
-      <c r="I263" s="25"/>
-      <c r="J263" s="26"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B268" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C268" s="32"/>
-      <c r="H268" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B269" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C269" s="32"/>
-      <c r="H269" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
+      <c r="B176" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="H176" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="H269:J269"/>
-    <mergeCell ref="H268:J268"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="H175:J175"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
